--- a/Tester Results/TEST_EXPERIMENT_ALL_VARIABLES.xlsx
+++ b/Tester Results/TEST_EXPERIMENT_ALL_VARIABLES.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -896,12 +896,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>prepulse_intensity</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -910,20 +910,38 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>9.902468503264625</v>
+        <v>50.00000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9076503484459021</v>
+        <v>2.292480287044587e-05</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.1641698131791786</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>offset_PPI_10</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>tone_in_noise</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-80</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -938,7 +956,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -947,10 +965,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>13.54395383998275</v>
+        <v>9.902468503264625</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6990793869983605</v>
+        <v>0.9076503484459021</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -975,7 +993,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -984,10 +1002,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>16.35983784269203</v>
+        <v>13.54395383998275</v>
       </c>
       <c r="F14" t="n">
-        <v>0.498484130597148</v>
+        <v>0.6990793869983605</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -1012,7 +1030,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1021,10 +1039,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>13.83472471060628</v>
+        <v>16.35983784269203</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6787646812994838</v>
+        <v>0.498484130597148</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -1049,7 +1067,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1058,10 +1076,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>13.40942760942761</v>
+        <v>13.83472471060628</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7083753355887343</v>
+        <v>0.6787646812994838</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -1086,7 +1104,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1095,10 +1113,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>14.67003367003372</v>
+        <v>13.40942760942761</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6192353254561485</v>
+        <v>0.7083753355887343</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -1123,7 +1141,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1132,10 +1150,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>14.02087542087543</v>
+        <v>14.67003367003372</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6656236964032298</v>
+        <v>0.6192353254561485</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -1160,7 +1178,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1169,10 +1187,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>8.135353535353545</v>
+        <v>14.02087542087543</v>
       </c>
       <c r="F19" t="n">
-        <v>0.963566203708729</v>
+        <v>0.6656236964032298</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1197,7 +1215,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1206,10 +1224,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>12.70639730639729</v>
+        <v>8.135353535353545</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7556082428860643</v>
+        <v>0.963566203708729</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -1234,7 +1252,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1243,38 +1261,20 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>31.58287705326034</v>
+        <v>12.70639730639729</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01132585062828098</v>
+        <v>0.7556082428860643</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.1044240442381257</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>gap_duration_4</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>tone_in_noise</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="n">
-        <v>-35.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1298,20 +1298,38 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>17.78661493695445</v>
+        <v>31.58287705326034</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4024208356468866</v>
+        <v>0.01132585062828098</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.1044240442381257</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>gap_duration_4</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>tone_in_noise</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-35.19</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1321,12 +1339,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>prepulse_intensity</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1335,20 +1353,38 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>9.796375367681955</v>
+        <v>50.00000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9119313185377108</v>
+        <v>2.292480287044587e-05</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.1641698131791786</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>offset_PPI_10</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>tone_in_noise</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-80</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1363,7 +1399,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1372,10 +1408,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>12.08398087653514</v>
+        <v>17.78661493695445</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7950253604156666</v>
+        <v>0.4024208356468866</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -1400,7 +1436,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1409,10 +1445,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6.730222866000878</v>
+        <v>9.796375367681955</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9867805605494859</v>
+        <v>0.9119313185377108</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -1437,7 +1473,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1446,10 +1482,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6.791245791245842</v>
+        <v>12.08398087653514</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9860943819552629</v>
+        <v>0.7950253604156666</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -1474,7 +1510,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1483,10 +1519,10 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>7.42962962962963</v>
+        <v>6.730222866000878</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9772734137125973</v>
+        <v>0.9867805605494859</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -1511,7 +1547,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1520,10 +1556,10 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>10.90707070707074</v>
+        <v>6.791245791245842</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8613538887964793</v>
+        <v>0.9860943819552629</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1548,7 +1584,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1557,10 +1593,10 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3.230303030303048</v>
+        <v>7.42962962962963</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9998822211956704</v>
+        <v>0.9772734137125973</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -1585,7 +1621,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1594,10 +1630,10 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>20.4639730639731</v>
+        <v>10.90707070707074</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2511879998136732</v>
+        <v>0.8613538887964793</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -1622,7 +1658,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1631,53 +1667,35 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>31.58287705326034</v>
+        <v>3.230303030303048</v>
       </c>
       <c r="F31" t="n">
-        <v>0.01132585062828098</v>
+        <v>0.9998822211956704</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.1044240442381257</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>gap_duration_4</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>tone_in_noise</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="n">
-        <v>-35.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1686,10 +1704,10 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>17.62478929624946</v>
+        <v>20.4639730639731</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4128727059357563</v>
+        <v>0.2511879998136732</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -1704,17 +1722,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1723,35 +1741,53 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>12.12848541838081</v>
+        <v>31.58287705326034</v>
       </c>
       <c r="F33" t="n">
-        <v>0.792295209853508</v>
+        <v>0.01132585062828098</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.1044240442381257</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>gap_duration_4</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>tone_in_noise</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-35.19</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>female</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>prepulse_intensity</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1760,20 +1796,38 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>19.38347947058749</v>
+        <v>50.00000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3069698743991893</v>
+        <v>2.292480287044587e-05</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.1641698131791786</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>offset_PPI_10</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>tone_in_noise</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-80</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1788,7 +1842,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1797,10 +1851,10 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>15.30841750841753</v>
+        <v>17.62478929624946</v>
       </c>
       <c r="F35" t="n">
-        <v>0.5732772659217072</v>
+        <v>0.4128727059357563</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
@@ -1825,7 +1879,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1834,10 +1888,10 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>13.6437710437711</v>
+        <v>12.12848541838081</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6921379188669889</v>
+        <v>0.792295209853508</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
@@ -1862,7 +1916,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1871,10 +1925,10 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>18.42222222222227</v>
+        <v>19.38347947058749</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3626846598669993</v>
+        <v>0.3069698743991893</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
@@ -1899,7 +1953,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1908,10 +1962,10 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>14.1070707070707</v>
+        <v>15.30841750841753</v>
       </c>
       <c r="F38" t="n">
-        <v>0.6595088327915704</v>
+        <v>0.5732772659217072</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
@@ -1936,7 +1990,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1945,10 +1999,10 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>12.20808080808081</v>
+        <v>13.6437710437711</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7873765668019929</v>
+        <v>0.6921379188669889</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
@@ -1973,7 +2027,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1982,10 +2036,10 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>12.15420875420875</v>
+        <v>18.42222222222227</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7907106109798886</v>
+        <v>0.3626846598669993</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
@@ -2010,7 +2064,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2019,38 +2073,20 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>30.84355342354168</v>
+        <v>14.1070707070707</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0140886581352574</v>
+        <v>0.6595088327915704</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.448379671767127</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>gap_duration_8</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>offset_PPI_12</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="n">
-        <v>-15.05666666666667</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2060,12 +2096,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2074,10 +2110,10 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5.788087108978499</v>
+        <v>12.20808080808081</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9945001066568254</v>
+        <v>0.7873765668019929</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
@@ -2097,12 +2133,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2111,10 +2147,10 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6.762558145578355</v>
+        <v>12.15420875420875</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9864201416724194</v>
+        <v>0.7907106109798886</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
@@ -2134,12 +2170,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2148,20 +2184,38 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>7.030577371970961</v>
+        <v>30.84355342354168</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9831494668380424</v>
+        <v>0.0140886581352574</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.448379671767127</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>gap_duration_8</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>offset_PPI_12</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-15.05666666666667</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2171,12 +2225,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>prepulse_intensity</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2185,20 +2239,38 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6.360269360269371</v>
+        <v>50.00000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9904193734119163</v>
+        <v>2.292480287044587e-05</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.1641698131791786</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>offset_PPI_10</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>tone_in_noise</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-80</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2213,7 +2285,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2222,10 +2294,10 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6.182491582491565</v>
+        <v>5.788087108978499</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9918731810620275</v>
+        <v>0.9945001066568254</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
@@ -2250,7 +2322,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2259,10 +2331,10 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5.506397306397304</v>
+        <v>6.762558145578355</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9959354587126586</v>
+        <v>0.9864201416724194</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
@@ -2287,7 +2359,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2296,10 +2368,10 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4.100336700336698</v>
+        <v>7.030577371970961</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9993891063825645</v>
+        <v>0.9831494668380424</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
@@ -2324,7 +2396,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2333,10 +2405,10 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2.050505050505052</v>
+        <v>6.360269360269371</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9999958389324287</v>
+        <v>0.9904193734119163</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
@@ -2361,7 +2433,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2370,10 +2442,10 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2.979797979798008</v>
+        <v>6.182491582491565</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9999337916661879</v>
+        <v>0.9918731810620275</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
@@ -2398,7 +2470,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2407,38 +2479,20 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>30.84355342354168</v>
+        <v>5.506397306397304</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0140886581352574</v>
+        <v>0.9959354587126586</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.448379671767127</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>gap_duration_8</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>offset_PPI_12</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="n">
-        <v>-15.05666666666667</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2448,12 +2502,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2462,10 +2516,10 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>14.56706766068</v>
+        <v>4.100336700336698</v>
       </c>
       <c r="F52" t="n">
-        <v>0.6266338067038737</v>
+        <v>0.9993891063825645</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
@@ -2485,12 +2539,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2499,10 +2553,10 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>20.35247021273715</v>
+        <v>2.050505050505052</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2565991118614184</v>
+        <v>0.9999958389324287</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
@@ -2522,12 +2576,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2536,10 +2590,10 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>15.05319395155068</v>
+        <v>2.979797979798008</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5916500296037716</v>
+        <v>0.9999337916661879</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
@@ -2559,12 +2613,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2573,20 +2627,38 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>10.76700336700335</v>
+        <v>30.84355342354168</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8684166538117963</v>
+        <v>0.0140886581352574</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.448379671767127</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>gap_duration_8</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>offset_PPI_12</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-15.05666666666667</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2596,12 +2668,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>prepulse_intensity</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2610,20 +2682,38 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>10.85319865319863</v>
+        <v>50.00000000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>0.8640928057062447</v>
+        <v>2.292480287044587e-05</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.1641698131791786</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>offset_PPI_10</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>tone_in_noise</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-80</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2638,7 +2728,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2647,10 +2737,10 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>13.28552188552194</v>
+        <v>14.56706766068</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7168721805388729</v>
+        <v>0.6266338067038737</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
@@ -2675,7 +2765,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2684,10 +2774,10 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6.451851851851899</v>
+        <v>20.35247021273715</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9895984958228489</v>
+        <v>0.2565991118614184</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
@@ -2712,7 +2802,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2721,10 +2811,10 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>2.190572390572413</v>
+        <v>15.05319395155068</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9999931415624029</v>
+        <v>0.5916500296037716</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
@@ -2749,7 +2839,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2758,10 +2848,10 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>3.661279461279491</v>
+        <v>10.76700336700335</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9997173307080688</v>
+        <v>0.8684166538117963</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
@@ -2786,46 +2876,286 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>PTPA</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Kruskal-Wallis</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>10.85319865319863</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.8640928057062447</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>PTTA</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Kruskal-Wallis</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>13.28552188552194</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.7168721805388729</v>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>RMS</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Kruskal-Wallis</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>6.451851851851899</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.9895984958228489</v>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>tau</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Kruskal-Wallis</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>2.190572390572413</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.9999931415624029</v>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Kruskal-Wallis</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>3.661279461279491</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.9997173307080688</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>percentPPI</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Kruskal-Wallis</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Kruskal-Wallis</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
         <v>30.84355342354168</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F66" t="n">
         <v>0.0140886581352574</v>
       </c>
-      <c r="G61" t="b">
+      <c r="G66" t="b">
         <v>1</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H66" t="n">
         <v>0.448379671767127</v>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>Dunn</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>gap_duration_8</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>offset_PPI_12</t>
         </is>
       </c>
-      <c r="L61" t="n">
+      <c r="L66" t="n">
         <v>1</v>
       </c>
-      <c r="M61" t="n">
+      <c r="M66" t="n">
         <v>-15.05666666666667</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>prepulse_intensity</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Kruskal-Wallis</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>50.00000000000001</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2.292480287044587e-05</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.1641698131791786</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>offset_PPI_10</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>tone_in_noise</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-80</v>
       </c>
     </row>
   </sheetData>

--- a/Tester Results/TEST_EXPERIMENT_ALL_VARIABLES.xlsx
+++ b/Tester Results/TEST_EXPERIMENT_ALL_VARIABLES.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -896,12 +896,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>prepulse_intensity</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -910,38 +910,20 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>50.00000000000001</v>
+        <v>9.902468503264625</v>
       </c>
       <c r="F12" t="n">
-        <v>2.292480287044587e-05</v>
+        <v>0.9076503484459021</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.1641698131791786</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>offset_PPI_10</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>tone_in_noise</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="n">
-        <v>-80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -956,7 +938,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -965,10 +947,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>9.902468503264625</v>
+        <v>13.54395383998275</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9076503484459021</v>
+        <v>0.6990793869983605</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -993,7 +975,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1002,10 +984,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>13.54395383998275</v>
+        <v>16.35983784269203</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6990793869983605</v>
+        <v>0.498484130597148</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -1030,7 +1012,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1039,10 +1021,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>16.35983784269203</v>
+        <v>13.83472471060628</v>
       </c>
       <c r="F15" t="n">
-        <v>0.498484130597148</v>
+        <v>0.6787646812994838</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -1067,7 +1049,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1076,10 +1058,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>13.83472471060628</v>
+        <v>13.40942760942761</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6787646812994838</v>
+        <v>0.7083753355887343</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -1104,7 +1086,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1113,10 +1095,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.40942760942761</v>
+        <v>14.67003367003372</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7083753355887343</v>
+        <v>0.6192353254561485</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -1141,7 +1123,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1150,10 +1132,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>14.67003367003372</v>
+        <v>14.02087542087543</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6192353254561485</v>
+        <v>0.6656236964032298</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -1178,7 +1160,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1187,10 +1169,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>14.02087542087543</v>
+        <v>8.135353535353545</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6656236964032298</v>
+        <v>0.963566203708729</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1215,7 +1197,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1224,10 +1206,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>8.135353535353545</v>
+        <v>12.70639730639729</v>
       </c>
       <c r="F20" t="n">
-        <v>0.963566203708729</v>
+        <v>0.7556082428860643</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -1252,7 +1234,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1261,20 +1243,38 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>12.70639730639729</v>
+        <v>31.58287705326034</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7556082428860643</v>
+        <v>0.01132585062828098</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.1044240442381257</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>gap_duration_4</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>tone_in_noise</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-35.19</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1298,38 +1298,20 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>31.58287705326034</v>
+        <v>17.78661493695445</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01132585062828098</v>
+        <v>0.4024208356468866</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.1044240442381257</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>gap_duration_4</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>tone_in_noise</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="n">
-        <v>-35.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1339,12 +1321,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>prepulse_intensity</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1353,38 +1335,20 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>50.00000000000001</v>
+        <v>9.796375367681955</v>
       </c>
       <c r="F23" t="n">
-        <v>2.292480287044587e-05</v>
+        <v>0.9119313185377108</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.1641698131791786</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>offset_PPI_10</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>tone_in_noise</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="n">
-        <v>-80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1399,7 +1363,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1408,10 +1372,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>17.78661493695445</v>
+        <v>12.08398087653514</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4024208356468866</v>
+        <v>0.7950253604156666</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -1436,7 +1400,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1445,10 +1409,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>9.796375367681955</v>
+        <v>6.730222866000878</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9119313185377108</v>
+        <v>0.9867805605494859</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -1473,7 +1437,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1482,10 +1446,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>12.08398087653514</v>
+        <v>6.791245791245842</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7950253604156666</v>
+        <v>0.9860943819552629</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -1510,7 +1474,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1519,10 +1483,10 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6.730222866000878</v>
+        <v>7.42962962962963</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9867805605494859</v>
+        <v>0.9772734137125973</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -1547,7 +1511,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1556,10 +1520,10 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6.791245791245842</v>
+        <v>10.90707070707074</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9860943819552629</v>
+        <v>0.8613538887964793</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1584,7 +1548,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1593,10 +1557,10 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>7.42962962962963</v>
+        <v>3.230303030303048</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9772734137125973</v>
+        <v>0.9998822211956704</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -1621,7 +1585,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1630,10 +1594,10 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>10.90707070707074</v>
+        <v>20.4639730639731</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8613538887964793</v>
+        <v>0.2511879998136732</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -1658,7 +1622,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1667,35 +1631,53 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3.230303030303048</v>
+        <v>31.58287705326034</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9998822211956704</v>
+        <v>0.01132585062828098</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.1044240442381257</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>gap_duration_4</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>tone_in_noise</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-35.19</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1704,10 +1686,10 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>20.4639730639731</v>
+        <v>17.62478929624946</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2511879998136732</v>
+        <v>0.4128727059357563</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -1722,17 +1704,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1741,53 +1723,35 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>31.58287705326034</v>
+        <v>12.12848541838081</v>
       </c>
       <c r="F33" t="n">
-        <v>0.01132585062828098</v>
+        <v>0.792295209853508</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.1044240442381257</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>gap_duration_4</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>tone_in_noise</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="n">
-        <v>-35.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>prepulse_intensity</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1796,38 +1760,20 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>50.00000000000001</v>
+        <v>19.38347947058749</v>
       </c>
       <c r="F34" t="n">
-        <v>2.292480287044587e-05</v>
+        <v>0.3069698743991893</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.1641698131791786</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>offset_PPI_10</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>tone_in_noise</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="n">
-        <v>-80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1842,7 +1788,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1851,10 +1797,10 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>17.62478929624946</v>
+        <v>15.30841750841753</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4128727059357563</v>
+        <v>0.5732772659217072</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
@@ -1879,7 +1825,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1888,10 +1834,10 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>12.12848541838081</v>
+        <v>13.6437710437711</v>
       </c>
       <c r="F36" t="n">
-        <v>0.792295209853508</v>
+        <v>0.6921379188669889</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
@@ -1916,7 +1862,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1925,10 +1871,10 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>19.38347947058749</v>
+        <v>18.42222222222227</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3069698743991893</v>
+        <v>0.3626846598669993</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
@@ -1953,7 +1899,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1962,10 +1908,10 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>15.30841750841753</v>
+        <v>14.1070707070707</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5732772659217072</v>
+        <v>0.6595088327915704</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
@@ -1990,7 +1936,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1999,10 +1945,10 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>13.6437710437711</v>
+        <v>12.20808080808081</v>
       </c>
       <c r="F39" t="n">
-        <v>0.6921379188669889</v>
+        <v>0.7873765668019929</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
@@ -2027,7 +1973,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2036,10 +1982,10 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>18.42222222222227</v>
+        <v>12.15420875420875</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3626846598669993</v>
+        <v>0.7907106109798886</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
@@ -2064,7 +2010,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2073,20 +2019,38 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>14.1070707070707</v>
+        <v>30.84355342354168</v>
       </c>
       <c r="F41" t="n">
-        <v>0.6595088327915704</v>
+        <v>0.0140886581352574</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.448379671767127</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>gap_duration_8</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>offset_PPI_12</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-15.05666666666667</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2096,12 +2060,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2110,10 +2074,10 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>12.20808080808081</v>
+        <v>5.788087108978499</v>
       </c>
       <c r="F42" t="n">
-        <v>0.7873765668019929</v>
+        <v>0.9945001066568254</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
@@ -2133,12 +2097,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2147,10 +2111,10 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>12.15420875420875</v>
+        <v>6.762558145578355</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7907106109798886</v>
+        <v>0.9864201416724194</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
@@ -2170,12 +2134,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2184,38 +2148,20 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>30.84355342354168</v>
+        <v>7.030577371970961</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0140886581352574</v>
+        <v>0.9831494668380424</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.448379671767127</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>gap_duration_8</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>offset_PPI_12</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="n">
-        <v>-15.05666666666667</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2225,12 +2171,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>prepulse_intensity</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2239,38 +2185,20 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>50.00000000000001</v>
+        <v>6.360269360269371</v>
       </c>
       <c r="F45" t="n">
-        <v>2.292480287044587e-05</v>
+        <v>0.9904193734119163</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.1641698131791786</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>offset_PPI_10</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>tone_in_noise</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="n">
-        <v>-80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2285,7 +2213,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2294,10 +2222,10 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5.788087108978499</v>
+        <v>6.182491582491565</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9945001066568254</v>
+        <v>0.9918731810620275</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
@@ -2322,7 +2250,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2331,10 +2259,10 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6.762558145578355</v>
+        <v>5.506397306397304</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9864201416724194</v>
+        <v>0.9959354587126586</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
@@ -2359,7 +2287,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2368,10 +2296,10 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>7.030577371970961</v>
+        <v>4.100336700336698</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9831494668380424</v>
+        <v>0.9993891063825645</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
@@ -2396,7 +2324,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2405,10 +2333,10 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6.360269360269371</v>
+        <v>2.050505050505052</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9904193734119163</v>
+        <v>0.9999958389324287</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
@@ -2433,7 +2361,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2442,10 +2370,10 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6.182491582491565</v>
+        <v>2.979797979798008</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9918731810620275</v>
+        <v>0.9999337916661879</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
@@ -2470,7 +2398,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2479,20 +2407,38 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5.506397306397304</v>
+        <v>30.84355342354168</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9959354587126586</v>
+        <v>0.0140886581352574</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.448379671767127</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Dunn</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>gap_duration_8</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>offset_PPI_12</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-15.05666666666667</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2502,12 +2448,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2516,10 +2462,10 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4.100336700336698</v>
+        <v>14.56706766068</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9993891063825645</v>
+        <v>0.6266338067038737</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
@@ -2539,12 +2485,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2553,10 +2499,10 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2.050505050505052</v>
+        <v>20.35247021273715</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9999958389324287</v>
+        <v>0.2565991118614184</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
@@ -2576,12 +2522,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2590,10 +2536,10 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2.979797979798008</v>
+        <v>15.05319395155068</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9999337916661879</v>
+        <v>0.5916500296037716</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
@@ -2613,12 +2559,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2627,38 +2573,20 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>30.84355342354168</v>
+        <v>10.76700336700335</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0140886581352574</v>
+        <v>0.8684166538117963</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.448379671767127</v>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>gap_duration_8</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>offset_PPI_12</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="n">
-        <v>-15.05666666666667</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2668,12 +2596,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>prepulse_intensity</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2682,38 +2610,20 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>50.00000000000001</v>
+        <v>10.85319865319863</v>
       </c>
       <c r="F56" t="n">
-        <v>2.292480287044587e-05</v>
+        <v>0.8640928057062447</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.1641698131791786</v>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>offset_PPI_10</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>tone_in_noise</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="n">
-        <v>-80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2728,7 +2638,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2737,10 +2647,10 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>14.56706766068</v>
+        <v>13.28552188552194</v>
       </c>
       <c r="F57" t="n">
-        <v>0.6266338067038737</v>
+        <v>0.7168721805388729</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
@@ -2765,7 +2675,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2774,10 +2684,10 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>20.35247021273715</v>
+        <v>6.451851851851899</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2565991118614184</v>
+        <v>0.9895984958228489</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
@@ -2802,7 +2712,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2811,10 +2721,10 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>15.05319395155068</v>
+        <v>2.190572390572413</v>
       </c>
       <c r="F59" t="n">
-        <v>0.5916500296037716</v>
+        <v>0.9999931415624029</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
@@ -2839,7 +2749,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2848,10 +2758,10 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>10.76700336700335</v>
+        <v>3.661279461279491</v>
       </c>
       <c r="F60" t="n">
-        <v>0.8684166538117963</v>
+        <v>0.9997173307080688</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
@@ -2876,7 +2786,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>percentPPI</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2885,277 +2795,37 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>10.85319865319863</v>
+        <v>30.84355342354168</v>
       </c>
       <c r="F61" t="n">
-        <v>0.8640928057062447</v>
+        <v>0.0140886581352574</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>PTTA</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Kruskal-Wallis</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>13.28552188552194</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.7168721805388729</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Kruskal-Wallis</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>6.451851851851899</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.9895984958228489</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Kruskal-Wallis</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>2.190572390572413</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.9999931415624029</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Kruskal-Wallis</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>3.661279461279491</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.9997173307080688</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Kruskal-Wallis</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>30.84355342354168</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.0140886581352574</v>
-      </c>
-      <c r="G66" t="b">
         <v>1</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H61" t="n">
         <v>0.448379671767127</v>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>Dunn</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>gap_duration_8</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>offset_PPI_12</t>
         </is>
       </c>
-      <c r="L66" t="n">
+      <c r="L61" t="n">
         <v>1</v>
       </c>
-      <c r="M66" t="n">
+      <c r="M61" t="n">
         <v>-15.05666666666667</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>prepulse_intensity</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Kruskal-Wallis</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>50.00000000000001</v>
-      </c>
-      <c r="F67" t="n">
-        <v>2.292480287044587e-05</v>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.1641698131791786</v>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>offset_PPI_10</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>tone_in_noise</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="n">
-        <v>-80</v>
       </c>
     </row>
   </sheetData>

--- a/Tester Results/TEST_EXPERIMENT_ALL_VARIABLES.xlsx
+++ b/Tester Results/TEST_EXPERIMENT_ALL_VARIABLES.xlsx
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>20.45741853553805</v>
+        <v>19.74990846801613</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2515038722722122</v>
+        <v>0.2872204899930764</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>9.130542514345326</v>
+        <v>10.00595392930433</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9360770907292467</v>
+        <v>0.9033604222625667</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>11.61391064863531</v>
+        <v>10.5165648496241</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8229316950735199</v>
+        <v>0.8805644860611128</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>15.41868384604637</v>
+        <v>17.07270463266503</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5653518641114013</v>
+        <v>0.4494509430353845</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -670,10 +670,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>15.55622895622898</v>
+        <v>17.11851851851856</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5554827585147184</v>
+        <v>0.4463647919350963</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -707,10 +707,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>14.82626262626266</v>
+        <v>16.19191919191923</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6079942256983659</v>
+        <v>0.5102725999270727</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -744,10 +744,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>16.72525252525256</v>
+        <v>17.31784511784514</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4731255226251436</v>
+        <v>0.433041086945226</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>13.91313131313132</v>
+        <v>10.95555555555555</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6732412363272156</v>
+        <v>0.8588650668199713</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -818,10 +818,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>16.49898989898995</v>
+        <v>16.91649831649835</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4887769044145326</v>
+        <v>0.4600371692574816</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>9.902468503264625</v>
+        <v>10.06954503996997</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9076503484459021</v>
+        <v>0.9006685810748074</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>13.54395383998275</v>
+        <v>14.58477859778597</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6990793869983605</v>
+        <v>0.6253619407853492</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -984,10 +984,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>16.35983784269203</v>
+        <v>15.88961105952753</v>
       </c>
       <c r="F14" t="n">
-        <v>0.498484130597148</v>
+        <v>0.5316736230297163</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>13.83472471060628</v>
+        <v>14.61323523805892</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6787646812994838</v>
+        <v>0.6233177338533453</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>13.40942760942761</v>
+        <v>14.75353535353537</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7083753355887343</v>
+        <v>0.6132290039032561</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -1095,10 +1095,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>14.67003367003372</v>
+        <v>15.65858585858584</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6192353254561485</v>
+        <v>0.5481538782571054</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>14.02087542087543</v>
+        <v>15.23838383838384</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6656236964032298</v>
+        <v>0.5783157080066663</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -1169,10 +1169,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>8.135353535353545</v>
+        <v>7.348821548821576</v>
       </c>
       <c r="F19" t="n">
-        <v>0.963566203708729</v>
+        <v>0.9785660098462289</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>12.70639730639729</v>
+        <v>13.26666666666668</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7556082428860643</v>
+        <v>0.7181593700949438</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -1298,10 +1298,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>17.78661493695445</v>
+        <v>17.9528749028749</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4024208356468866</v>
+        <v>0.3918197103365802</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>9.796375367681955</v>
+        <v>13.2984221161701</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9119313185377108</v>
+        <v>0.7159906164162134</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>12.08398087653514</v>
+        <v>11.66373600836595</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7950253604156666</v>
+        <v>0.8200577428218352</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -1409,10 +1409,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6.730222866000878</v>
+        <v>6.839730639730647</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9867805605494859</v>
+        <v>0.9855308373540883</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6.791245791245842</v>
+        <v>7.12794612794616</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9860943819552629</v>
+        <v>0.9818307054642154</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -1483,10 +1483,10 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>7.42962962962963</v>
+        <v>8.453198653198683</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9772734137125973</v>
+        <v>0.9558726784182503</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>10.90707070707074</v>
+        <v>11.51043771043771</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8613538887964793</v>
+        <v>0.8288333422092209</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1557,10 +1557,10 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3.230303030303048</v>
+        <v>3.69629629629631</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9998822211956704</v>
+        <v>0.9996981742571849</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>20.4639730639731</v>
+        <v>19.80942760942767</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2511879998136732</v>
+        <v>0.2840926143861244</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>17.62478929624946</v>
+        <v>16.07992794782793</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4128727059357563</v>
+        <v>0.5181759496709071</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -1723,10 +1723,10 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>12.12848541838081</v>
+        <v>11.81348498659163</v>
       </c>
       <c r="F33" t="n">
-        <v>0.792295209853508</v>
+        <v>0.8112974447350877</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
@@ -1760,10 +1760,10 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>19.38347947058749</v>
+        <v>21.07854081658839</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3069698743991893</v>
+        <v>0.2227968183854642</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
@@ -1797,10 +1797,10 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>15.30841750841753</v>
+        <v>13.79191919191919</v>
       </c>
       <c r="F35" t="n">
-        <v>0.5732772659217072</v>
+        <v>0.6817725629112075</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
@@ -1834,10 +1834,10 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>13.6437710437711</v>
+        <v>12.21616161616163</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6921379188669889</v>
+        <v>0.7868746744489046</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
@@ -1871,10 +1871,10 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>18.42222222222227</v>
+        <v>16.63097643097643</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3626846598669993</v>
+        <v>0.4796259842508583</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
@@ -1908,10 +1908,10 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>14.1070707070707</v>
+        <v>12.86262626262626</v>
       </c>
       <c r="F38" t="n">
-        <v>0.6595088327915704</v>
+        <v>0.74533269022994</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
@@ -1945,10 +1945,10 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>12.20808080808081</v>
+        <v>12.08417508417506</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7873765668019929</v>
+        <v>0.7950134782809414</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
@@ -1982,10 +1982,10 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>12.15420875420875</v>
+        <v>11.69360269360268</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7907106109798886</v>
+        <v>0.8183251487752419</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
@@ -2074,10 +2074,10 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5.788087108978499</v>
+        <v>6.270105661422032</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9945001066568254</v>
+        <v>0.9911791674816943</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
@@ -2111,10 +2111,10 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6.762558145578355</v>
+        <v>6.973592681550336</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9864201416724194</v>
+        <v>0.9838882912511282</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
@@ -2148,10 +2148,10 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>7.030577371970961</v>
+        <v>7.724905469145936</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9831494668380424</v>
+        <v>0.9720804757867715</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
@@ -2185,10 +2185,10 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6.360269360269371</v>
+        <v>7.278391908718961</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9904193734119163</v>
+        <v>0.9796491287445568</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
@@ -2222,10 +2222,10 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6.182491582491565</v>
+        <v>7.281481481481478</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9918731810620275</v>
+        <v>0.979602453321185</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
@@ -2259,10 +2259,10 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5.506397306397304</v>
+        <v>6.10168350168351</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9959354587126586</v>
+        <v>0.9924759853759489</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
@@ -2296,10 +2296,10 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4.100336700336698</v>
+        <v>4.024915824915837</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9993891063825645</v>
+        <v>0.9994608107649994</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
@@ -2333,10 +2333,10 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2.050505050505052</v>
+        <v>1.993939393939399</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9999958389324287</v>
+        <v>0.9999966363579901</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
@@ -2370,10 +2370,10 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2.979797979798008</v>
+        <v>2.62693602693605</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9999337916661879</v>
+        <v>0.9999735064937318</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
@@ -2462,10 +2462,10 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>14.56706766068</v>
+        <v>11.59994635268872</v>
       </c>
       <c r="F52" t="n">
-        <v>0.6266338067038737</v>
+        <v>0.823733441813972</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
@@ -2499,10 +2499,10 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>20.35247021273715</v>
+        <v>19.26582034211361</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2565991118614184</v>
+        <v>0.3134894232633516</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>15.05319395155068</v>
+        <v>15.66126495462048</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5916500296037716</v>
+        <v>0.5479622531940875</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
@@ -2573,10 +2573,10 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>10.76700336700335</v>
+        <v>9.581818181818193</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8684166538117963</v>
+        <v>0.9202251291870815</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
@@ -2610,10 +2610,10 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>10.85319865319863</v>
+        <v>9.713804713804734</v>
       </c>
       <c r="F56" t="n">
-        <v>0.8640928057062447</v>
+        <v>0.9151808414779276</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
@@ -2647,10 +2647,10 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>13.28552188552194</v>
+        <v>10.79663299663301</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7168721805388729</v>
+        <v>0.8669384826507929</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6.451851851851899</v>
+        <v>6.882828282828314</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9895984958228489</v>
+        <v>0.9850160340101525</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
@@ -2721,10 +2721,10 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>2.190572390572413</v>
+        <v>2.710437710437731</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9999931415624029</v>
+        <v>0.999966682782062</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>3.661279461279491</v>
+        <v>4.140740740740739</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9997173307080688</v>
+        <v>0.9993476199995381</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>

--- a/Tester Results/TEST_EXPERIMENT_ALL_VARIABLES.xlsx
+++ b/Tester Results/TEST_EXPERIMENT_ALL_VARIABLES.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -841,12 +841,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -855,38 +855,20 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>31.58287705326034</v>
+        <v>10.06954503996997</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01132585062828098</v>
+        <v>0.9006685810748074</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.1044240442381257</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>gap_duration_4</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>tone_in_noise</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>-35.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -901,7 +883,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -910,10 +892,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>10.06954503996997</v>
+        <v>14.58477859778597</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9006685810748074</v>
+        <v>0.6253619407853492</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -938,7 +920,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -947,10 +929,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>14.58477859778597</v>
+        <v>15.88961105952753</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6253619407853492</v>
+        <v>0.5316736230297163</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -975,7 +957,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -984,10 +966,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>15.88961105952753</v>
+        <v>14.61323523805892</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5316736230297163</v>
+        <v>0.6233177338533453</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -1012,7 +994,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1021,10 +1003,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>14.61323523805892</v>
+        <v>14.75353535353537</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6233177338533453</v>
+        <v>0.6132290039032561</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -1049,7 +1031,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1058,10 +1040,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>14.75353535353537</v>
+        <v>15.65858585858584</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6132290039032561</v>
+        <v>0.5481538782571054</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -1086,7 +1068,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1095,10 +1077,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>15.65858585858584</v>
+        <v>15.23838383838384</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5481538782571054</v>
+        <v>0.5783157080066663</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -1123,7 +1105,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1132,10 +1114,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>15.23838383838384</v>
+        <v>7.348821548821576</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5783157080066663</v>
+        <v>0.9785660098462289</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -1160,7 +1142,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1169,10 +1151,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>7.348821548821576</v>
+        <v>13.26666666666668</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9785660098462289</v>
+        <v>0.7181593700949438</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1192,12 +1174,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1206,10 +1188,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>13.26666666666668</v>
+        <v>17.9528749028749</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7181593700949438</v>
+        <v>0.3918197103365802</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -1229,12 +1211,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1243,38 +1225,20 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>31.58287705326034</v>
+        <v>13.2984221161701</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01132585062828098</v>
+        <v>0.7159906164162134</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.1044240442381257</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>gap_duration_4</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>tone_in_noise</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="n">
-        <v>-35.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1289,7 +1253,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1298,10 +1262,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>17.9528749028749</v>
+        <v>11.66373600836595</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3918197103365802</v>
+        <v>0.8200577428218352</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -1326,7 +1290,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1335,10 +1299,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>13.2984221161701</v>
+        <v>6.839730639730647</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7159906164162134</v>
+        <v>0.9855308373540883</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1363,7 +1327,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1372,10 +1336,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>11.66373600836595</v>
+        <v>7.12794612794616</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8200577428218352</v>
+        <v>0.9818307054642154</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -1400,7 +1364,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1409,10 +1373,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6.839730639730647</v>
+        <v>8.453198653198683</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9855308373540883</v>
+        <v>0.9558726784182503</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -1437,7 +1401,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1446,10 +1410,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>7.12794612794616</v>
+        <v>11.51043771043771</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9818307054642154</v>
+        <v>0.8288333422092209</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -1474,7 +1438,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1483,10 +1447,10 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>8.453198653198683</v>
+        <v>3.69629629629631</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9558726784182503</v>
+        <v>0.9996981742571849</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -1511,7 +1475,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1520,10 +1484,10 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>11.51043771043771</v>
+        <v>19.80942760942767</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8288333422092209</v>
+        <v>0.2840926143861244</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1538,17 +1502,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1557,10 +1521,10 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3.69629629629631</v>
+        <v>16.07992794782793</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9996981742571849</v>
+        <v>0.5181759496709071</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -1575,17 +1539,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1594,10 +1558,10 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>19.80942760942767</v>
+        <v>11.81348498659163</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2840926143861244</v>
+        <v>0.8112974447350877</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -1612,17 +1576,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1631,38 +1595,20 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>31.58287705326034</v>
+        <v>21.07854081658839</v>
       </c>
       <c r="F31" t="n">
-        <v>0.01132585062828098</v>
+        <v>0.2227968183854642</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.1044240442381257</v>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>gap_duration_4</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>tone_in_noise</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="n">
-        <v>-35.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1677,7 +1623,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1686,10 +1632,10 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>16.07992794782793</v>
+        <v>13.79191919191919</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5181759496709071</v>
+        <v>0.6817725629112075</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -1714,7 +1660,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1723,10 +1669,10 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>11.81348498659163</v>
+        <v>12.21616161616163</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8112974447350877</v>
+        <v>0.7868746744489046</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
@@ -1751,7 +1697,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1760,10 +1706,10 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>21.07854081658839</v>
+        <v>16.63097643097643</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2227968183854642</v>
+        <v>0.4796259842508583</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
@@ -1788,7 +1734,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1797,10 +1743,10 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>13.79191919191919</v>
+        <v>12.86262626262626</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6817725629112075</v>
+        <v>0.74533269022994</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
@@ -1825,7 +1771,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1834,10 +1780,10 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>12.21616161616163</v>
+        <v>12.08417508417506</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7868746744489046</v>
+        <v>0.7950134782809414</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
@@ -1862,7 +1808,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1871,10 +1817,10 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>16.63097643097643</v>
+        <v>11.69360269360268</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4796259842508583</v>
+        <v>0.8183251487752419</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
@@ -1894,12 +1840,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1908,10 +1854,10 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>12.86262626262626</v>
+        <v>6.270105661422032</v>
       </c>
       <c r="F38" t="n">
-        <v>0.74533269022994</v>
+        <v>0.9911791674816943</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
@@ -1931,12 +1877,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1945,10 +1891,10 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>12.08417508417506</v>
+        <v>6.973592681550336</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7950134782809414</v>
+        <v>0.9838882912511282</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
@@ -1968,12 +1914,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1982,10 +1928,10 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>11.69360269360268</v>
+        <v>7.724905469145936</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8183251487752419</v>
+        <v>0.9720804757867715</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
@@ -2005,12 +1951,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2019,38 +1965,20 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>30.84355342354168</v>
+        <v>7.278391908718961</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0140886581352574</v>
+        <v>0.9796491287445568</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.448379671767127</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>gap_duration_8</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>offset_PPI_12</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="n">
-        <v>-15.05666666666667</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2065,7 +1993,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2074,10 +2002,10 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6.270105661422032</v>
+        <v>7.281481481481478</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9911791674816943</v>
+        <v>0.979602453321185</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
@@ -2102,7 +2030,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2111,10 +2039,10 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6.973592681550336</v>
+        <v>6.10168350168351</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9838882912511282</v>
+        <v>0.9924759853759489</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
@@ -2139,7 +2067,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2148,10 +2076,10 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>7.724905469145936</v>
+        <v>4.024915824915837</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9720804757867715</v>
+        <v>0.9994608107649994</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
@@ -2176,7 +2104,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2185,10 +2113,10 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>7.278391908718961</v>
+        <v>1.993939393939399</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9796491287445568</v>
+        <v>0.9999966363579901</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
@@ -2213,7 +2141,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2222,10 +2150,10 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>7.281481481481478</v>
+        <v>2.62693602693605</v>
       </c>
       <c r="F46" t="n">
-        <v>0.979602453321185</v>
+        <v>0.9999735064937318</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
@@ -2245,12 +2173,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2259,10 +2187,10 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6.10168350168351</v>
+        <v>11.59994635268872</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9924759853759489</v>
+        <v>0.823733441813972</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
@@ -2282,12 +2210,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2296,10 +2224,10 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4.024915824915837</v>
+        <v>19.26582034211361</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9994608107649994</v>
+        <v>0.3134894232633516</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
@@ -2319,12 +2247,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>difference</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2333,10 +2261,10 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1.993939393939399</v>
+        <v>15.66126495462048</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9999966363579901</v>
+        <v>0.5479622531940875</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
@@ -2356,12 +2284,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2370,10 +2298,10 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2.62693602693605</v>
+        <v>9.581818181818193</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9999735064937318</v>
+        <v>0.9202251291870815</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
@@ -2393,12 +2321,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>percentPPI</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2407,38 +2335,20 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>30.84355342354168</v>
+        <v>9.713804713804734</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0140886581352574</v>
+        <v>0.9151808414779276</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.448379671767127</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>gap_duration_8</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>offset_PPI_12</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="n">
-        <v>-15.05666666666667</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2453,7 +2363,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2462,10 +2372,10 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>11.59994635268872</v>
+        <v>10.79663299663301</v>
       </c>
       <c r="F52" t="n">
-        <v>0.823733441813972</v>
+        <v>0.8669384826507929</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
@@ -2490,7 +2400,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2499,10 +2409,10 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>19.26582034211361</v>
+        <v>6.882828282828314</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3134894232633516</v>
+        <v>0.9850160340101525</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
@@ -2527,7 +2437,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2536,10 +2446,10 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>15.66126495462048</v>
+        <v>2.710437710437731</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5479622531940875</v>
+        <v>0.999966682782062</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
@@ -2564,7 +2474,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2573,10 +2483,10 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>9.581818181818193</v>
+        <v>4.140740740740739</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9202251291870815</v>
+        <v>0.9993476199995381</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
@@ -2588,246 +2498,6 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>PTPA</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Kruskal-Wallis</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>9.713804713804734</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.9151808414779276</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>PTTA</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Kruskal-Wallis</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>10.79663299663301</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.8669384826507929</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Kruskal-Wallis</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>6.882828282828314</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.9850160340101525</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Kruskal-Wallis</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>2.710437710437731</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.999966682782062</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Kruskal-Wallis</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>4.140740740740739</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.9993476199995381</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Kruskal-Wallis</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>30.84355342354168</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.0140886581352574</v>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.448379671767127</v>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>gap_duration_8</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>offset_PPI_12</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="n">
-        <v>-15.05666666666667</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Tester Results/TEST_EXPERIMENT_ALL_VARIABLES.xlsx
+++ b/Tester Results/TEST_EXPERIMENT_ALL_VARIABLES.xlsx
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>19.74990846801613</v>
+        <v>20.45741853553805</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2872204899930764</v>
+        <v>0.2515038722722122</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10.00595392930433</v>
+        <v>9.130542514345326</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9033604222625667</v>
+        <v>0.9360770907292467</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>10.5165648496241</v>
+        <v>11.61391064863531</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8805644860611128</v>
+        <v>0.8229316950735199</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>17.07270463266503</v>
+        <v>15.41868384604637</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4494509430353845</v>
+        <v>0.5653518641114013</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -670,10 +670,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>17.11851851851856</v>
+        <v>15.55622895622898</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4463647919350963</v>
+        <v>0.5554827585147184</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -707,10 +707,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>16.19191919191923</v>
+        <v>14.82626262626266</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5102725999270727</v>
+        <v>0.6079942256983659</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -744,10 +744,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>17.31784511784514</v>
+        <v>16.72525252525256</v>
       </c>
       <c r="F8" t="n">
-        <v>0.433041086945226</v>
+        <v>0.4731255226251436</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>10.95555555555555</v>
+        <v>13.91313131313132</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8588650668199713</v>
+        <v>0.6732412363272156</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -818,10 +818,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>16.91649831649835</v>
+        <v>16.49898989898995</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4600371692574816</v>
+        <v>0.4887769044145326</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -855,10 +855,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>10.06954503996997</v>
+        <v>9.902468503264625</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9006685810748074</v>
+        <v>0.9076503484459021</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>14.58477859778597</v>
+        <v>13.54395383998275</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6253619407853492</v>
+        <v>0.6990793869983605</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>15.88961105952753</v>
+        <v>16.35983784269203</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5316736230297163</v>
+        <v>0.498484130597148</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>14.61323523805892</v>
+        <v>13.83472471060628</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6233177338533453</v>
+        <v>0.6787646812994838</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -1003,10 +1003,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>14.75353535353537</v>
+        <v>13.40942760942761</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6132290039032561</v>
+        <v>0.7083753355887343</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>15.65858585858584</v>
+        <v>14.67003367003372</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5481538782571054</v>
+        <v>0.6192353254561485</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>15.23838383838384</v>
+        <v>14.02087542087543</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5783157080066663</v>
+        <v>0.6656236964032298</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>7.348821548821576</v>
+        <v>8.135353535353545</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9785660098462289</v>
+        <v>0.963566203708729</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -1151,10 +1151,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>13.26666666666668</v>
+        <v>12.70639730639729</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7181593700949438</v>
+        <v>0.7556082428860643</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>17.9528749028749</v>
+        <v>17.78661493695445</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3918197103365802</v>
+        <v>0.4024208356468866</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -1225,10 +1225,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>13.2984221161701</v>
+        <v>9.796375367681955</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7159906164162134</v>
+        <v>0.9119313185377108</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>11.66373600836595</v>
+        <v>12.08398087653514</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8200577428218352</v>
+        <v>0.7950253604156666</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -1299,10 +1299,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6.839730639730647</v>
+        <v>6.730222866000878</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9855308373540883</v>
+        <v>0.9867805605494859</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>7.12794612794616</v>
+        <v>6.791245791245842</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9818307054642154</v>
+        <v>0.9860943819552629</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -1373,10 +1373,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>8.453198653198683</v>
+        <v>7.42962962962963</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9558726784182503</v>
+        <v>0.9772734137125973</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -1410,10 +1410,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>11.51043771043771</v>
+        <v>10.90707070707074</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8288333422092209</v>
+        <v>0.8613538887964793</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -1447,10 +1447,10 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3.69629629629631</v>
+        <v>3.230303030303048</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9996981742571849</v>
+        <v>0.9998822211956704</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>19.80942760942767</v>
+        <v>20.4639730639731</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2840926143861244</v>
+        <v>0.2511879998136732</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1521,10 +1521,10 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>16.07992794782793</v>
+        <v>17.62478929624946</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5181759496709071</v>
+        <v>0.4128727059357563</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -1558,10 +1558,10 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>11.81348498659163</v>
+        <v>12.12848541838081</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8112974447350877</v>
+        <v>0.792295209853508</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>21.07854081658839</v>
+        <v>19.38347947058749</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2227968183854642</v>
+        <v>0.3069698743991893</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -1632,10 +1632,10 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>13.79191919191919</v>
+        <v>15.30841750841753</v>
       </c>
       <c r="F32" t="n">
-        <v>0.6817725629112075</v>
+        <v>0.5732772659217072</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>12.21616161616163</v>
+        <v>13.6437710437711</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7868746744489046</v>
+        <v>0.6921379188669889</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
@@ -1706,10 +1706,10 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>16.63097643097643</v>
+        <v>18.42222222222227</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4796259842508583</v>
+        <v>0.3626846598669993</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
@@ -1743,10 +1743,10 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>12.86262626262626</v>
+        <v>14.1070707070707</v>
       </c>
       <c r="F35" t="n">
-        <v>0.74533269022994</v>
+        <v>0.6595088327915704</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>12.08417508417506</v>
+        <v>12.20808080808081</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7950134782809414</v>
+        <v>0.7873765668019929</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
@@ -1817,10 +1817,10 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>11.69360269360268</v>
+        <v>12.15420875420875</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8183251487752419</v>
+        <v>0.7907106109798886</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
@@ -1854,10 +1854,10 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6.270105661422032</v>
+        <v>5.788087108978499</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9911791674816943</v>
+        <v>0.9945001066568254</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6.973592681550336</v>
+        <v>6.762558145578355</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9838882912511282</v>
+        <v>0.9864201416724194</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
@@ -1928,10 +1928,10 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>7.724905469145936</v>
+        <v>7.030577371970961</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9720804757867715</v>
+        <v>0.9831494668380424</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
@@ -1965,10 +1965,10 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>7.278391908718961</v>
+        <v>6.360269360269371</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9796491287445568</v>
+        <v>0.9904193734119163</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
@@ -2002,10 +2002,10 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>7.281481481481478</v>
+        <v>6.182491582491565</v>
       </c>
       <c r="F42" t="n">
-        <v>0.979602453321185</v>
+        <v>0.9918731810620275</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
@@ -2039,10 +2039,10 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6.10168350168351</v>
+        <v>5.506397306397304</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9924759853759489</v>
+        <v>0.9959354587126586</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
@@ -2076,10 +2076,10 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4.024915824915837</v>
+        <v>4.100336700336698</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9994608107649994</v>
+        <v>0.9993891063825645</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
@@ -2113,10 +2113,10 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1.993939393939399</v>
+        <v>2.050505050505052</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9999966363579901</v>
+        <v>0.9999958389324287</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
@@ -2150,10 +2150,10 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2.62693602693605</v>
+        <v>2.979797979798008</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9999735064937318</v>
+        <v>0.9999337916661879</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
@@ -2187,10 +2187,10 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>11.59994635268872</v>
+        <v>14.56706766068</v>
       </c>
       <c r="F47" t="n">
-        <v>0.823733441813972</v>
+        <v>0.6266338067038737</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>19.26582034211361</v>
+        <v>20.35247021273715</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3134894232633516</v>
+        <v>0.2565991118614184</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
@@ -2261,10 +2261,10 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>15.66126495462048</v>
+        <v>15.05319395155068</v>
       </c>
       <c r="F49" t="n">
-        <v>0.5479622531940875</v>
+        <v>0.5916500296037716</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>9.581818181818193</v>
+        <v>10.76700336700335</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9202251291870815</v>
+        <v>0.8684166538117963</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>9.713804713804734</v>
+        <v>10.85319865319863</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9151808414779276</v>
+        <v>0.8640928057062447</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
@@ -2372,10 +2372,10 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>10.79663299663301</v>
+        <v>13.28552188552194</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8669384826507929</v>
+        <v>0.7168721805388729</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
@@ -2409,10 +2409,10 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6.882828282828314</v>
+        <v>6.451851851851899</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9850160340101525</v>
+        <v>0.9895984958228489</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
@@ -2446,10 +2446,10 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2.710437710437731</v>
+        <v>2.190572390572413</v>
       </c>
       <c r="F54" t="n">
-        <v>0.999966682782062</v>
+        <v>0.9999931415624029</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
@@ -2483,10 +2483,10 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4.140740740740739</v>
+        <v>3.661279461279491</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9993476199995381</v>
+        <v>0.9997173307080688</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
